--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_INVINV_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_INVINV_AVERAGE_1_9.xlsx
@@ -2368,7 +2368,7 @@
         <v>-0.03096525636255842</v>
       </c>
       <c r="AG17">
-        <v>-0.4412356890029168</v>
+        <v>-0.2555583584976984</v>
       </c>
       <c r="AH17">
         <v>-1.026566979837418</v>
@@ -2451,19 +2451,19 @@
         <v>1.205410808099971</v>
       </c>
       <c r="AG18">
-        <v>-1.287161643752965</v>
+        <v>1.129903841640179</v>
       </c>
       <c r="AH18">
-        <v>-3.329887238705409</v>
+        <v>-6.38174076944813</v>
       </c>
       <c r="AI18">
-        <v>-0.9187270897784594</v>
+        <v>1.988298574062308</v>
       </c>
       <c r="AJ18">
-        <v>-0.04074803603358879</v>
+        <v>1.135350354669384</v>
       </c>
       <c r="AK18">
-        <v>-0.04976849661378902</v>
+        <v>0.5230911540212935</v>
       </c>
       <c r="AL18">
         <v>0.3179894933462268</v>
@@ -2522,31 +2522,31 @@
         <v>1.205410808099949</v>
       </c>
       <c r="AG19">
-        <v>-1.764432271880856</v>
+        <v>1.205410808099949</v>
       </c>
       <c r="AH19">
-        <v>-2.870941366663748</v>
+        <v>-7.763184000000001</v>
       </c>
       <c r="AI19">
-        <v>-2.100316115087164</v>
+        <v>5.718701441599983</v>
       </c>
       <c r="AJ19">
-        <v>-0.2354831990173722</v>
+        <v>5.718701441600005</v>
       </c>
       <c r="AK19">
-        <v>-6.367504067266704</v>
+        <v>0.8452751789703949</v>
       </c>
       <c r="AL19">
-        <v>0.09136665742732752</v>
+        <v>-0.05914279202715589</v>
       </c>
       <c r="AM19">
-        <v>0.7185676380534911</v>
+        <v>0.4667506795136056</v>
       </c>
       <c r="AN19">
-        <v>1.296559640836992</v>
+        <v>2.185449115957439</v>
       </c>
       <c r="AO19">
-        <v>0.4784173072842179</v>
+        <v>0.5150411711202452</v>
       </c>
       <c r="AP19">
         <v>0.463604920919658</v>
@@ -2589,38 +2589,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>-2.100316115087164</v>
-      </c>
       <c r="AJ20">
-        <v>-0.6188733098008381</v>
+        <v>5.718701441600005</v>
       </c>
       <c r="AK20">
-        <v>-8.395279239155574</v>
+        <v>0.4006004000999486</v>
       </c>
       <c r="AL20">
-        <v>-0.1592126526562043</v>
+        <v>-0.3994003998999962</v>
       </c>
       <c r="AM20">
-        <v>1.072043735370976</v>
+        <v>0.4006004000999708</v>
       </c>
       <c r="AN20">
-        <v>0.439921111559638</v>
+        <v>4.887093273600018</v>
       </c>
       <c r="AO20">
-        <v>-0.07349332085010429</v>
+        <v>0.4006004000999486</v>
       </c>
       <c r="AP20">
-        <v>-1.086119702215593</v>
+        <v>-0.0517903667920816</v>
       </c>
       <c r="AQ20">
-        <v>0.3516957773510798</v>
+        <v>1.07882517017055</v>
       </c>
       <c r="AR20">
-        <v>0.8143067496459322</v>
+        <v>0.8255040266054614</v>
       </c>
       <c r="AS20">
-        <v>0.4279153732809959</v>
+        <v>0.5210077780289923</v>
       </c>
       <c r="AT20">
         <v>0.621639092134818</v>
@@ -2651,38 +2648,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>1.072043735370976</v>
-      </c>
       <c r="AN21">
-        <v>0.151745770327727</v>
+        <v>4.887093273599974</v>
       </c>
       <c r="AO21">
-        <v>-0.182563212667175</v>
+        <v>0.4006004000999708</v>
       </c>
       <c r="AP21">
-        <v>-2.045962667145718</v>
+        <v>-0.3994003998999962</v>
       </c>
       <c r="AQ21">
-        <v>-0.7234699379142895</v>
+        <v>1.205410808099949</v>
       </c>
       <c r="AR21">
-        <v>-0.05551881767973388</v>
+        <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.09327584436471525</v>
+        <v>1.305091503606493</v>
       </c>
       <c r="AT21">
-        <v>-0.185520708596465</v>
+        <v>-1.097580983230551</v>
       </c>
       <c r="AU21">
-        <v>-0.4267958602204081</v>
+        <v>-0.5760755550525576</v>
       </c>
       <c r="AV21">
-        <v>-1.077932696718564</v>
+        <v>-1.073387923554092</v>
       </c>
       <c r="AW21">
-        <v>-0.9378224616154895</v>
+        <v>-0.8507045154764636</v>
       </c>
       <c r="AX21">
         <v>-0.6768900623516982</v>
@@ -2701,78 +2695,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>-0.7234699379143006</v>
-      </c>
       <c r="AR22">
-        <v>-0.05921963363172411</v>
+        <v>0</v>
       </c>
       <c r="AS22">
-        <v>0.1167871503606532</v>
+        <v>1.609625625600009</v>
       </c>
       <c r="AT22">
-        <v>-0.1327955918879131</v>
+        <v>-1.590425574400001</v>
       </c>
       <c r="AU22">
-        <v>5.213214835375624E-05</v>
+        <v>-0.3994003998999962</v>
       </c>
       <c r="AV22">
-        <v>-0.02296885644381685</v>
+        <v>0</v>
       </c>
       <c r="AW22">
-        <v>0.3335355268917262</v>
+        <v>1.483403742553846</v>
       </c>
       <c r="AX22">
-        <v>0.9196327481985289</v>
+        <v>2.831373241727242</v>
       </c>
       <c r="AY22">
-        <v>2.173733407444822</v>
+        <v>2.677970508051453</v>
       </c>
       <c r="AZ22">
-        <v>0.4743170952486997</v>
+        <v>-0.1808585347669145</v>
       </c>
       <c r="BA22">
-        <v>1.136769786738334</v>
+        <v>1.251846894998732</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>5.213214835375624E-05</v>
-      </c>
       <c r="AV23">
-        <v>-0.02450003849517879</v>
+        <v>0</v>
       </c>
       <c r="AW23">
-        <v>0.1953404222205801</v>
+        <v>1.609625625599986</v>
       </c>
       <c r="AX23">
-        <v>0.1912153250825499</v>
+        <v>3.238605209599976</v>
       </c>
       <c r="AY23">
-        <v>1.89918335857393</v>
+        <v>3.238605209599998</v>
       </c>
       <c r="AZ23">
-        <v>-0.324019587165425</v>
+        <v>-3.55169094390001</v>
       </c>
       <c r="BA23">
-        <v>0.2972123973886909</v>
+        <v>1.786827323774465</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>1.899183358573908</v>
-      </c>
       <c r="AZ24">
-        <v>-0.1041774522946626</v>
+        <v>-3.551690943899999</v>
       </c>
       <c r="BA24">
-        <v>0.1820887031683371</v>
+        <v>2.015050062499957</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_INVINV_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_INVINV_AVERAGE_1_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2233 +535,1906 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="B3">
+        <v>1.609625625600009</v>
+      </c>
+      <c r="C3">
+        <v>2.829537440099972</v>
+      </c>
+      <c r="D3">
+        <v>2.957479223435744</v>
+      </c>
+      <c r="E3">
+        <v>0.5917823527752386</v>
+      </c>
+      <c r="F3">
+        <v>-0.01587181126745385</v>
+      </c>
+      <c r="G3">
+        <v>-0.1152878906296118</v>
+      </c>
+      <c r="H3">
+        <v>-0.2047209821942952</v>
+      </c>
+      <c r="I3">
+        <v>-0.2801429545594036</v>
+      </c>
+      <c r="J3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="K3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="L3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="M3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="N3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="O3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="P3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="Q3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="R3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="S3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="T3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="U3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="V3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="W3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="X3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="Y3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="Z3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AA3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AB3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AC3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AD3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AE3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AF3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AG3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AH3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AI3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AK3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AL3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AM3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AN3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AO3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AP3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AQ3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AR3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AS3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AT3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AU3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AV3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AW3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AX3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AY3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="AZ3">
+        <v>-0.6303298271467694</v>
+      </c>
+      <c r="BA3">
+        <v>-0.6303298271467694</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>-0.7015558851707349</v>
+        <v>40543</v>
       </c>
       <c r="C4">
-        <v>-0.6995465100600118</v>
+        <v>2.829537440099972</v>
       </c>
       <c r="D4">
-        <v>-0.8378691614090328</v>
+        <v>3.648892256099945</v>
       </c>
       <c r="E4">
-        <v>-0.8130688884747772</v>
+        <v>-1.985049937500005</v>
       </c>
       <c r="F4">
-        <v>-0.7418837606389284</v>
+        <v>3.8351443707757</v>
       </c>
       <c r="G4">
-        <v>-0.7418837606389284</v>
+        <v>1.985742476411234</v>
       </c>
       <c r="H4">
-        <v>-0.7418837606389284</v>
+        <v>-0.02256889165886955</v>
       </c>
       <c r="I4">
-        <v>-0.7418837606389284</v>
+        <v>0.1732664175299936</v>
       </c>
       <c r="J4">
-        <v>-0.7418837606389284</v>
+        <v>0.2311193849168669</v>
       </c>
       <c r="K4">
-        <v>-0.7418837606389284</v>
+        <v>0.2562644760991883</v>
       </c>
       <c r="L4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="M4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="N4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="O4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="P4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="Q4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="R4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="S4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="T4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="U4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="V4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="W4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="X4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="Y4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="Z4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AA4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AB4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AC4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AD4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AE4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AF4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AG4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AH4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AI4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AJ4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AK4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AL4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AM4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AN4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AO4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AP4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AQ4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AR4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AS4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AT4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AU4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AV4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AW4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AX4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AY4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="AZ4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
       <c r="BA4">
-        <v>-0.7418837606389284</v>
+        <v>0.3824851463237522</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="B5">
-        <v>1.245556224328537</v>
-      </c>
-      <c r="C5">
-        <v>1.247512323997491</v>
-      </c>
-      <c r="D5">
-        <v>0.3590181115727287</v>
+        <v>40908</v>
       </c>
       <c r="E5">
-        <v>0.3564654464027761</v>
+        <v>-1.985049937500005</v>
       </c>
       <c r="F5">
-        <v>0.2765385799708087</v>
+        <v>6.136355062499987</v>
       </c>
       <c r="G5">
-        <v>0.2765385799708087</v>
+        <v>7.819356632099961</v>
       </c>
       <c r="H5">
-        <v>-0.3442601760834885</v>
+        <v>-0.6757980944263275</v>
       </c>
       <c r="I5">
-        <v>-0.3442601760834885</v>
+        <v>-0.7518797681959066</v>
       </c>
       <c r="J5">
-        <v>-0.3442601760834885</v>
+        <v>0.09611428386595566</v>
       </c>
       <c r="K5">
-        <v>-0.3442601760834885</v>
+        <v>0.2959607217578153</v>
       </c>
       <c r="L5">
-        <v>-0.3442601760834885</v>
+        <v>0.5943957614300777</v>
       </c>
       <c r="M5">
-        <v>-0.3442601760834885</v>
+        <v>0.5943957614300777</v>
       </c>
       <c r="N5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="O5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="P5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="Q5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="R5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="S5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="T5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="U5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="V5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="W5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="X5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="Y5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="Z5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AA5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AB5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AC5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AD5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AE5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AF5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AG5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AH5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AI5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AJ5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AK5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AL5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AM5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AN5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AO5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AP5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AQ5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AR5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AS5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AT5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AU5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AV5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AW5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AX5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AY5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="AZ5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
       <c r="BA5">
-        <v>-0.3442601760834885</v>
+        <v>0.4942252260480062</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="B6">
-        <v>1.609625625600009</v>
-      </c>
-      <c r="C6">
-        <v>2.82953744009995</v>
-      </c>
-      <c r="D6">
-        <v>2.957479223435766</v>
-      </c>
-      <c r="E6">
-        <v>0.5917823527752164</v>
-      </c>
-      <c r="F6">
-        <v>-0.01587181126743165</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>-0.1152878906296118</v>
+        <v>7.819356632099961</v>
       </c>
       <c r="H6">
-        <v>-0.2047209821942841</v>
+        <v>-1.194610791900008</v>
       </c>
       <c r="I6">
-        <v>-0.2801429545593925</v>
+        <v>-1.590425574400001</v>
       </c>
       <c r="J6">
-        <v>-0.6303298271467472</v>
+        <v>-1.14533080410083</v>
       </c>
       <c r="K6">
-        <v>-0.6303298271467472</v>
+        <v>-0.5765930039053124</v>
       </c>
       <c r="L6">
-        <v>-0.6303298271467472</v>
+        <v>-0.1827723404408288</v>
       </c>
       <c r="M6">
-        <v>-0.6303298271467472</v>
+        <v>-0.3822321343413204</v>
       </c>
       <c r="N6">
-        <v>-0.6303298271467472</v>
+        <v>-0.4058678725275766</v>
       </c>
       <c r="O6">
-        <v>-0.6303298271467472</v>
+        <v>-0.4556399653004473</v>
       </c>
       <c r="P6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="Q6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="R6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="S6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="T6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="U6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="V6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="W6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="X6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="Y6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="Z6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AA6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AB6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AC6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AD6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AE6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AF6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AG6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AH6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AI6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AJ6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AK6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AL6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AM6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AN6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AO6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AP6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AQ6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AR6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AS6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AT6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AU6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AV6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AW6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AX6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AY6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="AZ6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
       <c r="BA6">
-        <v>-0.6303298271467472</v>
+        <v>-0.8283953561833202</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="C7">
-        <v>2.829537440099972</v>
-      </c>
-      <c r="D7">
-        <v>3.648892256099945</v>
-      </c>
-      <c r="E7">
-        <v>-1.985049937499994</v>
-      </c>
-      <c r="F7">
-        <v>3.835144370775678</v>
-      </c>
-      <c r="G7">
-        <v>1.985742476411234</v>
-      </c>
-      <c r="H7">
-        <v>-0.02256889165885845</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>0.1732664175300158</v>
+        <v>-1.590425574400012</v>
       </c>
       <c r="J7">
-        <v>0.2311193849168669</v>
+        <v>-1.590425574400012</v>
       </c>
       <c r="K7">
-        <v>0.2562644760991883</v>
+        <v>-1.590425574400001</v>
       </c>
       <c r="L7">
-        <v>0.3824851463237522</v>
+        <v>-0.971238541762387</v>
       </c>
       <c r="M7">
-        <v>0.3824851463237522</v>
+        <v>-0.07642926654479743</v>
       </c>
       <c r="N7">
-        <v>0.3824851463237522</v>
+        <v>-0.001350220946472191</v>
       </c>
       <c r="O7">
-        <v>0.3824851463237522</v>
+        <v>-0.1268349561723836</v>
       </c>
       <c r="P7">
-        <v>0.3824851463237522</v>
+        <v>-0.0544176132767471</v>
       </c>
       <c r="Q7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="R7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="S7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="T7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="U7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="V7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="W7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="X7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="Y7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="Z7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AA7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AB7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AC7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AD7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AE7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AF7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AG7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AH7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AI7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AJ7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AK7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AL7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AM7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AN7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AO7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AP7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AQ7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AR7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AS7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AT7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AU7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AV7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AW7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AX7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AY7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="AZ7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
       <c r="BA7">
-        <v>0.3824851463237522</v>
+        <v>-0.1541135436267549</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="E8">
-        <v>-1.985049937499994</v>
-      </c>
-      <c r="F8">
-        <v>6.136355062499943</v>
-      </c>
-      <c r="G8">
-        <v>7.819356632099961</v>
-      </c>
-      <c r="H8">
-        <v>-0.6757980944263386</v>
-      </c>
-      <c r="I8">
-        <v>-0.7518797681958955</v>
-      </c>
-      <c r="J8">
-        <v>0.09611428386597787</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>0.2959607217577931</v>
+        <v>-1.590425574400001</v>
       </c>
       <c r="L8">
-        <v>0.5943957614300999</v>
+        <v>-1.194610791900008</v>
       </c>
       <c r="M8">
-        <v>0.5943957614300999</v>
+        <v>-0.3994003999000184</v>
       </c>
       <c r="N8">
-        <v>0.4942252260480062</v>
+        <v>0.6008487920565075</v>
       </c>
       <c r="O8">
-        <v>0.4942252260480062</v>
+        <v>0.9274109147535459</v>
       </c>
       <c r="P8">
-        <v>0.4942252260480062</v>
+        <v>-0.075754880139145</v>
       </c>
       <c r="Q8">
-        <v>0.4942252260480062</v>
+        <v>-0.050511210332016</v>
       </c>
       <c r="R8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="S8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="T8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="U8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="V8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="W8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="X8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="Y8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="Z8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AA8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AB8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AC8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AD8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AE8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AF8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AG8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AH8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AI8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AJ8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AK8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AL8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AM8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AN8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AO8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AP8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AQ8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AR8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AS8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AT8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AU8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AV8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AW8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AX8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AY8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="AZ8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
       <c r="BA8">
-        <v>0.4942252260480062</v>
+        <v>0.2992729818363626</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>7.819356632099961</v>
-      </c>
-      <c r="H9">
-        <v>-1.194610791900008</v>
-      </c>
-      <c r="I9">
-        <v>-1.590425574400001</v>
-      </c>
-      <c r="J9">
-        <v>-1.14533080410083</v>
-      </c>
-      <c r="K9">
-        <v>-0.5765930039052902</v>
-      </c>
-      <c r="L9">
-        <v>-0.1827723404408288</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>-0.3822321343413204</v>
+        <v>-0.3994003998999962</v>
       </c>
       <c r="N9">
-        <v>-0.4058678725275877</v>
+        <v>0.8024032016000104</v>
       </c>
       <c r="O9">
-        <v>-0.4556399653004473</v>
+        <v>2.82953744009995</v>
       </c>
       <c r="P9">
-        <v>-0.8283953561833313</v>
+        <v>-1.58998093318411</v>
       </c>
       <c r="Q9">
-        <v>-0.8283953561833313</v>
+        <v>-0.5259734324162268</v>
       </c>
       <c r="R9">
-        <v>-0.8283953561833313</v>
+        <v>-0.5761528471665334</v>
       </c>
       <c r="S9">
-        <v>-0.8283953561833313</v>
+        <v>-0.5511352283395166</v>
       </c>
       <c r="T9">
-        <v>-0.8283953561833313</v>
+        <v>-0.5764019548604726</v>
       </c>
       <c r="U9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="V9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="W9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="X9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="Y9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="Z9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AA9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AB9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AC9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AD9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AE9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AF9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AG9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AH9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AI9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AJ9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AK9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AL9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AM9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AN9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AO9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AP9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AQ9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AR9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AS9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AT9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AU9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AV9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AW9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AX9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AY9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="AZ9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
       <c r="BA9">
-        <v>-0.8283953561833313</v>
+        <v>-0.6011708148489947</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>-1.590425574400001</v>
-      </c>
-      <c r="J10">
-        <v>-1.590425574400001</v>
-      </c>
-      <c r="K10">
-        <v>-1.590425574400001</v>
-      </c>
-      <c r="L10">
-        <v>-0.9712385417624092</v>
-      </c>
-      <c r="M10">
-        <v>-0.07642926654481963</v>
-      </c>
-      <c r="N10">
-        <v>-0.001350220946483294</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>-0.1268349561723836</v>
+        <v>2.82953744009995</v>
       </c>
       <c r="P10">
-        <v>-0.0544176132767471</v>
+        <v>-1.985049937500005</v>
       </c>
       <c r="Q10">
-        <v>-0.1541135436267549</v>
+        <v>-1.194610791899997</v>
       </c>
       <c r="R10">
-        <v>-0.1541135436267549</v>
+        <v>0.4501721032283301</v>
       </c>
       <c r="S10">
-        <v>-0.1541135436267549</v>
+        <v>0.07456754038981384</v>
       </c>
       <c r="T10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2011999787958185</v>
       </c>
       <c r="U10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="V10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="W10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="X10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="Y10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="Z10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AA10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AB10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AC10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AD10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AE10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AF10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AG10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AH10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AI10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AJ10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AK10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AL10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AM10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AN10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AO10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AP10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AQ10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AR10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AS10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AT10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AU10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AV10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AW10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AX10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AY10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="AZ10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
       <c r="BA10">
-        <v>-0.1541135436267549</v>
+        <v>-0.2513629445286991</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>-1.59042557439999</v>
-      </c>
-      <c r="L11">
+        <v>43100</v>
+      </c>
+      <c r="Q11">
         <v>-1.194610791899997</v>
       </c>
-      <c r="M11">
-        <v>-0.3994003998999851</v>
-      </c>
-      <c r="N11">
-        <v>0.6008487920565297</v>
-      </c>
-      <c r="O11">
-        <v>0.9274109147535681</v>
-      </c>
-      <c r="P11">
-        <v>-0.075754880139145</v>
-      </c>
-      <c r="Q11">
-        <v>-0.0505112103320271</v>
-      </c>
       <c r="R11">
-        <v>0.2992729818363626</v>
+        <v>0.8024032015999882</v>
       </c>
       <c r="S11">
-        <v>0.2992729818363626</v>
+        <v>0.4006004000999708</v>
       </c>
       <c r="T11">
-        <v>0.2992729818363626</v>
+        <v>-0.150175137493469</v>
       </c>
       <c r="U11">
-        <v>0.2992729818363626</v>
+        <v>-0.07666472728170559</v>
       </c>
       <c r="V11">
-        <v>0.2992729818363626</v>
+        <v>0.1213692818849532</v>
       </c>
       <c r="W11">
-        <v>0.2992729818363626</v>
+        <v>0.2219444472046028</v>
       </c>
       <c r="X11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="Y11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="Z11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AA11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AB11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AC11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AD11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AE11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AF11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AG11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AH11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AI11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AJ11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AK11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AL11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AM11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AN11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AO11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AP11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AQ11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AR11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AS11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AT11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AU11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AV11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AW11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AX11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AY11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="AZ11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
       <c r="BA11">
-        <v>0.2992729818363626</v>
+        <v>0.2729872858366011</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>-0.3994003998999962</v>
-      </c>
-      <c r="N12">
-        <v>0.8024032015999882</v>
-      </c>
-      <c r="O12">
-        <v>2.829537440099972</v>
-      </c>
-      <c r="P12">
-        <v>-1.589980933184099</v>
-      </c>
-      <c r="Q12">
-        <v>-0.5259734324162268</v>
-      </c>
-      <c r="R12">
-        <v>-0.5761528471665445</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>-0.5511352283395277</v>
+        <v>0.4006004000999486</v>
       </c>
       <c r="T12">
-        <v>-0.5764019548604726</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>-0.6011708148489947</v>
+        <v>-1.590425574400012</v>
       </c>
       <c r="V12">
-        <v>-0.6011708148489947</v>
+        <v>1.204188598110267</v>
       </c>
       <c r="W12">
-        <v>-0.6011708148489947</v>
+        <v>0.1986438914956423</v>
       </c>
       <c r="X12">
-        <v>-0.6011708148489947</v>
+        <v>-0.2004754673795017</v>
       </c>
       <c r="Y12">
-        <v>-0.6011708148489947</v>
+        <v>0.1743342151774741</v>
       </c>
       <c r="Z12">
-        <v>-0.6011708148489947</v>
+        <v>0.1493219406571766</v>
       </c>
       <c r="AA12">
-        <v>-0.6011708148489947</v>
+        <v>0.2997710475070248</v>
       </c>
       <c r="AB12">
-        <v>-0.6011708148489947</v>
+        <v>0.3750834813967208</v>
       </c>
       <c r="AC12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AD12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AE12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AF12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AG12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AH12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AI12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AJ12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AK12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AL12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AM12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AN12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AO12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AP12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AQ12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AR12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AS12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AT12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AU12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AV12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AW12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AX12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AY12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="AZ12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
       <c r="BA12">
-        <v>-0.6011708148489947</v>
+        <v>0.1243096661369014</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>2.82953744009995</v>
-      </c>
-      <c r="P13">
-        <v>-1.985049937499994</v>
-      </c>
-      <c r="Q13">
-        <v>-1.194610791900008</v>
-      </c>
-      <c r="R13">
-        <v>0.4501721032283079</v>
-      </c>
-      <c r="S13">
-        <v>0.07456754038981384</v>
-      </c>
-      <c r="T13">
-        <v>-0.2011999787958185</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>-0.251362944528688</v>
+        <v>-1.590425574400001</v>
       </c>
       <c r="V13">
-        <v>-0.251362944528688</v>
+        <v>1.609625625600009</v>
       </c>
       <c r="W13">
-        <v>-0.251362944528688</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-0.251362944528688</v>
+        <v>-0.3994003999000073</v>
       </c>
       <c r="Y13">
-        <v>-0.251362944528688</v>
+        <v>1.483403742553846</v>
       </c>
       <c r="Z13">
-        <v>-0.251362944528688</v>
+        <v>2.372078088364704</v>
       </c>
       <c r="AA13">
-        <v>-0.251362944528688</v>
+        <v>-0.7530239469328737</v>
       </c>
       <c r="AB13">
-        <v>-0.251362944528688</v>
+        <v>-0.7283174404323023</v>
       </c>
       <c r="AC13">
-        <v>-0.251362944528688</v>
+        <v>-0.2044553505917812</v>
       </c>
       <c r="AD13">
-        <v>-0.251362944528688</v>
+        <v>-0.4278219446121501</v>
       </c>
       <c r="AE13">
-        <v>-0.251362944528688</v>
+        <v>-0.5527494010853284</v>
       </c>
       <c r="AF13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AG13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AH13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AI13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AJ13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AK13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AL13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AM13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AN13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AO13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AP13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AQ13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AR13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AS13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AT13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AU13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AV13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AW13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AX13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AY13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="AZ13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
       <c r="BA13">
-        <v>-0.251362944528688</v>
+        <v>-0.4025146932836732</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>-1.194610791899997</v>
-      </c>
-      <c r="R14">
-        <v>0.8024032016000104</v>
-      </c>
-      <c r="S14">
-        <v>0.4006004000999708</v>
-      </c>
-      <c r="T14">
-        <v>-0.1501751374934579</v>
-      </c>
-      <c r="U14">
-        <v>-0.07666472728168339</v>
-      </c>
-      <c r="V14">
-        <v>0.1213692818849532</v>
-      </c>
-      <c r="W14">
-        <v>0.2219444472046028</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>0.2729872858366011</v>
+        <v>-0.3994003998999962</v>
       </c>
       <c r="Y14">
-        <v>0.2729872858366011</v>
+        <v>1.609625625599986</v>
       </c>
       <c r="Z14">
-        <v>0.2729872858366011</v>
+        <v>2.82953744009995</v>
       </c>
       <c r="AA14">
-        <v>0.2729872858366011</v>
+        <v>-2.378486270399993</v>
       </c>
       <c r="AB14">
-        <v>0.2729872858366011</v>
+        <v>-2.378486270399993</v>
       </c>
       <c r="AC14">
-        <v>0.2729872858366011</v>
+        <v>0.8757395670492052</v>
       </c>
       <c r="AD14">
-        <v>0.2729872858366011</v>
+        <v>-2.378564786744752</v>
       </c>
       <c r="AE14">
-        <v>0.2729872858366011</v>
+        <v>0.6687116611293176</v>
       </c>
       <c r="AF14">
-        <v>0.2729872858366011</v>
+        <v>-0.03096525636256953</v>
       </c>
       <c r="AG14">
-        <v>0.2729872858366011</v>
+        <v>-0.2555583584977206</v>
       </c>
       <c r="AH14">
-        <v>0.2729872858366011</v>
+        <v>-1.026566979837429</v>
       </c>
       <c r="AI14">
-        <v>0.2729872858366011</v>
+        <v>-0.9773044327964553</v>
       </c>
       <c r="AJ14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AK14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AL14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AM14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AN14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AO14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AP14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AQ14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AR14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AS14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AT14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AU14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AV14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AW14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AX14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AY14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="AZ14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
       <c r="BA14">
-        <v>0.2729872858366011</v>
+        <v>-0.9275935716973494</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>0.4006004000999486</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>-1.590425574400012</v>
-      </c>
-      <c r="V15">
-        <v>1.204188598110267</v>
-      </c>
-      <c r="W15">
-        <v>0.1986438914956645</v>
-      </c>
-      <c r="X15">
-        <v>-0.2004754673795017</v>
-      </c>
-      <c r="Y15">
-        <v>0.1743342151774741</v>
-      </c>
-      <c r="Z15">
-        <v>0.1493219406571766</v>
-      </c>
-      <c r="AA15">
-        <v>0.2997710475070026</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>0.3750834813966986</v>
+        <v>-2.378486270399993</v>
       </c>
       <c r="AC15">
-        <v>0.1243096661368792</v>
+        <v>1.205410808099949</v>
       </c>
       <c r="AD15">
-        <v>0.1243096661368792</v>
+        <v>-2.770736959900011</v>
       </c>
       <c r="AE15">
-        <v>0.1243096661368792</v>
+        <v>2.421686529599998</v>
       </c>
       <c r="AF15">
-        <v>0.1243096661368792</v>
+        <v>1.205410808099949</v>
       </c>
       <c r="AG15">
-        <v>0.1243096661368792</v>
+        <v>1.129903841640179</v>
       </c>
       <c r="AH15">
-        <v>0.1243096661368792</v>
+        <v>-6.38174076944813</v>
       </c>
       <c r="AI15">
-        <v>0.1243096661368792</v>
+        <v>1.98829857406233</v>
       </c>
       <c r="AJ15">
-        <v>0.1243096661368792</v>
+        <v>1.135350354669407</v>
       </c>
       <c r="AK15">
-        <v>0.1243096661368792</v>
+        <v>0.5230911540212935</v>
       </c>
       <c r="AL15">
-        <v>0.1243096661368792</v>
+        <v>0.3179894933462268</v>
       </c>
       <c r="AM15">
-        <v>0.1243096661368792</v>
+        <v>0.2925841306726351</v>
       </c>
       <c r="AN15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AO15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AP15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AQ15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AR15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AS15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AT15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AU15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AV15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AW15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AX15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AY15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="AZ15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
       <c r="BA15">
-        <v>0.1243096661368792</v>
+        <v>0.2398177392026746</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>-1.590425574400001</v>
-      </c>
-      <c r="V16">
-        <v>1.609625625600031</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>-0.3994003998999962</v>
-      </c>
-      <c r="Y16">
-        <v>1.483403742553846</v>
-      </c>
-      <c r="Z16">
-        <v>2.372078088364726</v>
-      </c>
-      <c r="AA16">
-        <v>-0.7530239469328848</v>
-      </c>
-      <c r="AB16">
-        <v>-0.7283174404322912</v>
-      </c>
-      <c r="AC16">
-        <v>-0.2044553505917923</v>
-      </c>
-      <c r="AD16">
-        <v>-0.4278219446121612</v>
-      </c>
-      <c r="AE16">
-        <v>-0.5527494010853284</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>-0.402514693283651</v>
+        <v>1.205410808099949</v>
       </c>
       <c r="AG16">
-        <v>-0.402514693283651</v>
+        <v>1.205410808099971</v>
       </c>
       <c r="AH16">
-        <v>-0.402514693283651</v>
+        <v>-7.763184000000001</v>
       </c>
       <c r="AI16">
-        <v>-0.402514693283651</v>
+        <v>5.718701441600027</v>
       </c>
       <c r="AJ16">
-        <v>-0.402514693283651</v>
+        <v>5.718701441600027</v>
       </c>
       <c r="AK16">
-        <v>-0.402514693283651</v>
+        <v>0.8452751789703949</v>
       </c>
       <c r="AL16">
-        <v>-0.402514693283651</v>
+        <v>-0.05914279202715589</v>
       </c>
       <c r="AM16">
-        <v>-0.402514693283651</v>
+        <v>0.4667506795136056</v>
       </c>
       <c r="AN16">
-        <v>-0.402514693283651</v>
+        <v>2.185449115957461</v>
       </c>
       <c r="AO16">
-        <v>-0.402514693283651</v>
+        <v>0.5150411711202452</v>
       </c>
       <c r="AP16">
-        <v>-0.402514693283651</v>
+        <v>0.4636049209196802</v>
       </c>
       <c r="AQ16">
-        <v>-0.402514693283651</v>
+        <v>0.5395297571184399</v>
       </c>
       <c r="AR16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="AS16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="AT16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="AU16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="AV16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="AW16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="AX16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="AY16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="AZ16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
       <c r="BA16">
-        <v>-0.402514693283651</v>
+        <v>0.539177729005802</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>-0.3994003999000073</v>
-      </c>
-      <c r="Y17">
-        <v>1.609625625600009</v>
-      </c>
-      <c r="Z17">
-        <v>2.82953744009995</v>
-      </c>
-      <c r="AA17">
-        <v>-2.378486270400004</v>
-      </c>
-      <c r="AB17">
-        <v>-2.378486270400004</v>
-      </c>
-      <c r="AC17">
-        <v>0.8757395670492052</v>
-      </c>
-      <c r="AD17">
-        <v>-2.378564786744741</v>
-      </c>
-      <c r="AE17">
-        <v>0.6687116611293176</v>
-      </c>
-      <c r="AF17">
-        <v>-0.03096525636255842</v>
-      </c>
-      <c r="AG17">
-        <v>-0.2555583584976984</v>
-      </c>
-      <c r="AH17">
-        <v>-1.026566979837418</v>
-      </c>
-      <c r="AI17">
-        <v>-0.9773044327964442</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>-0.9275935716973271</v>
+        <v>5.718701441600005</v>
       </c>
       <c r="AK17">
-        <v>-0.9275935716973271</v>
+        <v>0.4006004000999486</v>
       </c>
       <c r="AL17">
-        <v>-0.9275935716973271</v>
+        <v>-0.3994003998999962</v>
       </c>
       <c r="AM17">
-        <v>-0.9275935716973271</v>
+        <v>0.4006004000999486</v>
       </c>
       <c r="AN17">
-        <v>-0.9275935716973271</v>
+        <v>4.887093273600018</v>
       </c>
       <c r="AO17">
-        <v>-0.9275935716973271</v>
+        <v>0.4006004000999486</v>
       </c>
       <c r="AP17">
-        <v>-0.9275935716973271</v>
+        <v>-0.0517903667920816</v>
       </c>
       <c r="AQ17">
-        <v>-0.9275935716973271</v>
+        <v>1.07882517017055</v>
       </c>
       <c r="AR17">
-        <v>-0.9275935716973271</v>
+        <v>0.8255040266054614</v>
       </c>
       <c r="AS17">
-        <v>-0.9275935716973271</v>
+        <v>0.5210077780289701</v>
       </c>
       <c r="AT17">
-        <v>-0.9275935716973271</v>
+        <v>0.6216390921348403</v>
       </c>
       <c r="AU17">
-        <v>-0.9275935716973271</v>
+        <v>0.5469773526883603</v>
       </c>
       <c r="AV17">
-        <v>-0.9275935716973271</v>
+        <v>0.6992203852886458</v>
       </c>
       <c r="AW17">
-        <v>-0.9275935716973271</v>
+        <v>0.6992203852886458</v>
       </c>
       <c r="AX17">
-        <v>-0.9275935716973271</v>
+        <v>0.6992203852886458</v>
       </c>
       <c r="AY17">
-        <v>-0.9275935716973271</v>
+        <v>0.6992203852886458</v>
       </c>
       <c r="AZ17">
-        <v>-0.9275935716973271</v>
+        <v>0.6992203852886458</v>
       </c>
       <c r="BA17">
-        <v>-0.9275935716973271</v>
+        <v>0.6992203852886458</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>-2.378486270400004</v>
-      </c>
-      <c r="AC18">
-        <v>1.205410808099971</v>
-      </c>
-      <c r="AD18">
-        <v>-2.7707369599</v>
-      </c>
-      <c r="AE18">
-        <v>2.42168652960002</v>
-      </c>
-      <c r="AF18">
-        <v>1.205410808099971</v>
-      </c>
-      <c r="AG18">
-        <v>1.129903841640179</v>
-      </c>
-      <c r="AH18">
-        <v>-6.38174076944813</v>
-      </c>
-      <c r="AI18">
-        <v>1.988298574062308</v>
-      </c>
-      <c r="AJ18">
-        <v>1.135350354669384</v>
-      </c>
-      <c r="AK18">
-        <v>0.5230911540212935</v>
-      </c>
-      <c r="AL18">
-        <v>0.3179894933462268</v>
-      </c>
-      <c r="AM18">
-        <v>0.2925841306726129</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>0.2398177392026746</v>
+        <v>4.887093273599996</v>
       </c>
       <c r="AO18">
-        <v>0.2398177392026746</v>
+        <v>0.4006004000999708</v>
       </c>
       <c r="AP18">
-        <v>0.2398177392026746</v>
+        <v>-0.3994003998999962</v>
       </c>
       <c r="AQ18">
-        <v>0.2398177392026746</v>
+        <v>1.205410808099949</v>
       </c>
       <c r="AR18">
-        <v>0.2398177392026746</v>
+        <v>0</v>
       </c>
       <c r="AS18">
-        <v>0.2398177392026746</v>
+        <v>1.305091503606493</v>
       </c>
       <c r="AT18">
-        <v>0.2398177392026746</v>
+        <v>-1.097580983230539</v>
       </c>
       <c r="AU18">
-        <v>0.2398177392026746</v>
+        <v>-0.5760755550525465</v>
       </c>
       <c r="AV18">
-        <v>0.2398177392026746</v>
+        <v>-1.073387923554092</v>
       </c>
       <c r="AW18">
-        <v>0.2398177392026746</v>
+        <v>-0.8507045154764525</v>
       </c>
       <c r="AX18">
-        <v>0.2398177392026746</v>
+        <v>-0.6768900623516871</v>
       </c>
       <c r="AY18">
-        <v>0.2398177392026746</v>
+        <v>-0.9251966500764652</v>
       </c>
       <c r="AZ18">
-        <v>0.2398177392026746</v>
+        <v>-0.850803046382087</v>
       </c>
       <c r="BA18">
-        <v>0.2398177392026746</v>
+        <v>-0.850803046382087</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>1.205410808099949</v>
-      </c>
-      <c r="AG19">
-        <v>1.205410808099949</v>
-      </c>
-      <c r="AH19">
-        <v>-7.763184000000001</v>
-      </c>
-      <c r="AI19">
-        <v>5.718701441599983</v>
-      </c>
-      <c r="AJ19">
-        <v>5.718701441600005</v>
-      </c>
-      <c r="AK19">
-        <v>0.8452751789703949</v>
-      </c>
-      <c r="AL19">
-        <v>-0.05914279202715589</v>
-      </c>
-      <c r="AM19">
-        <v>0.4667506795136056</v>
-      </c>
-      <c r="AN19">
-        <v>2.185449115957439</v>
-      </c>
-      <c r="AO19">
-        <v>0.5150411711202452</v>
-      </c>
-      <c r="AP19">
-        <v>0.463604920919658</v>
-      </c>
-      <c r="AQ19">
-        <v>0.5395297571184177</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>0.539177729005802</v>
+        <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.539177729005802</v>
+        <v>1.609625625600031</v>
       </c>
       <c r="AT19">
-        <v>0.539177729005802</v>
+        <v>-1.590425574400001</v>
       </c>
       <c r="AU19">
-        <v>0.539177729005802</v>
+        <v>-0.3994003998999962</v>
       </c>
       <c r="AV19">
-        <v>0.539177729005802</v>
+        <v>0</v>
       </c>
       <c r="AW19">
-        <v>0.539177729005802</v>
+        <v>1.483403742553846</v>
       </c>
       <c r="AX19">
-        <v>0.539177729005802</v>
+        <v>2.831373241727242</v>
       </c>
       <c r="AY19">
-        <v>0.539177729005802</v>
+        <v>2.67797050805143</v>
       </c>
       <c r="AZ19">
-        <v>0.539177729005802</v>
+        <v>-0.1808585347669145</v>
       </c>
       <c r="BA19">
-        <v>0.539177729005802</v>
+        <v>1.251846894998732</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>5.718701441600005</v>
-      </c>
-      <c r="AK20">
-        <v>0.4006004000999486</v>
-      </c>
-      <c r="AL20">
-        <v>-0.3994003998999962</v>
-      </c>
-      <c r="AM20">
-        <v>0.4006004000999708</v>
-      </c>
-      <c r="AN20">
-        <v>4.887093273600018</v>
-      </c>
-      <c r="AO20">
-        <v>0.4006004000999486</v>
-      </c>
-      <c r="AP20">
-        <v>-0.0517903667920816</v>
-      </c>
-      <c r="AQ20">
-        <v>1.07882517017055</v>
-      </c>
-      <c r="AR20">
-        <v>0.8255040266054614</v>
-      </c>
-      <c r="AS20">
-        <v>0.5210077780289923</v>
-      </c>
-      <c r="AT20">
-        <v>0.621639092134818</v>
-      </c>
-      <c r="AU20">
-        <v>0.5469773526883603</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>0.699220385288668</v>
+        <v>0</v>
       </c>
       <c r="AW20">
-        <v>0.699220385288668</v>
+        <v>1.609625625600009</v>
       </c>
       <c r="AX20">
-        <v>0.699220385288668</v>
+        <v>3.238605209600021</v>
       </c>
       <c r="AY20">
-        <v>0.699220385288668</v>
+        <v>3.238605209600021</v>
       </c>
       <c r="AZ20">
-        <v>0.699220385288668</v>
+        <v>-3.551690943900021</v>
       </c>
       <c r="BA20">
-        <v>0.699220385288668</v>
+        <v>1.786827323774465</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>4.887093273599974</v>
-      </c>
-      <c r="AO21">
-        <v>0.4006004000999708</v>
-      </c>
-      <c r="AP21">
-        <v>-0.3994003998999962</v>
-      </c>
-      <c r="AQ21">
-        <v>1.205410808099949</v>
-      </c>
-      <c r="AR21">
-        <v>0</v>
-      </c>
-      <c r="AS21">
-        <v>1.305091503606493</v>
-      </c>
-      <c r="AT21">
-        <v>-1.097580983230551</v>
-      </c>
-      <c r="AU21">
-        <v>-0.5760755550525576</v>
-      </c>
-      <c r="AV21">
-        <v>-1.073387923554092</v>
-      </c>
-      <c r="AW21">
-        <v>-0.8507045154764636</v>
-      </c>
-      <c r="AX21">
-        <v>-0.6768900623516982</v>
-      </c>
-      <c r="AY21">
-        <v>-0.9251966500764763</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>-0.850803046382087</v>
+        <v>-3.551690943899999</v>
       </c>
       <c r="BA21">
-        <v>-0.850803046382087</v>
+        <v>2.015050062499957</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>0</v>
-      </c>
-      <c r="AS22">
-        <v>1.609625625600009</v>
-      </c>
-      <c r="AT22">
-        <v>-1.590425574400001</v>
-      </c>
-      <c r="AU22">
-        <v>-0.3994003998999962</v>
-      </c>
-      <c r="AV22">
-        <v>0</v>
-      </c>
-      <c r="AW22">
-        <v>1.483403742553846</v>
-      </c>
-      <c r="AX22">
-        <v>2.831373241727242</v>
-      </c>
-      <c r="AY22">
-        <v>2.677970508051453</v>
-      </c>
-      <c r="AZ22">
-        <v>-0.1808585347669145</v>
-      </c>
-      <c r="BA22">
-        <v>1.251846894998732</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
-      </c>
-      <c r="AW23">
-        <v>1.609625625599986</v>
-      </c>
-      <c r="AX23">
-        <v>3.238605209599976</v>
-      </c>
-      <c r="AY23">
-        <v>3.238605209599998</v>
-      </c>
-      <c r="AZ23">
-        <v>-3.55169094390001</v>
-      </c>
-      <c r="BA23">
-        <v>1.786827323774465</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>-3.551690943899999</v>
-      </c>
-      <c r="BA24">
-        <v>2.015050062499957</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_INVINV_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_INVINV_AVERAGE_1_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -698,8 +701,11 @@
       <c r="BA3">
         <v>-0.6303298271467694</v>
       </c>
+      <c r="BB3">
+        <v>-0.6303298271467694</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -856,8 +862,11 @@
       <c r="BA4">
         <v>0.3824851463237522</v>
       </c>
+      <c r="BB4">
+        <v>0.3824851463237522</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -1008,8 +1017,11 @@
       <c r="BA5">
         <v>0.4942252260480062</v>
       </c>
+      <c r="BB5">
+        <v>0.4942252260480062</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1154,8 +1166,11 @@
       <c r="BA6">
         <v>-0.8283953561833202</v>
       </c>
+      <c r="BB6">
+        <v>-0.8283953561833202</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1294,8 +1309,11 @@
       <c r="BA7">
         <v>-0.1541135436267549</v>
       </c>
+      <c r="BB7">
+        <v>-0.1541135436267549</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1428,8 +1446,11 @@
       <c r="BA8">
         <v>0.2992729818363626</v>
       </c>
+      <c r="BB8">
+        <v>0.2992729818363626</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1556,8 +1577,11 @@
       <c r="BA9">
         <v>-0.6011708148489947</v>
       </c>
+      <c r="BB9">
+        <v>-0.6011708148489947</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1678,8 +1702,11 @@
       <c r="BA10">
         <v>-0.2513629445286991</v>
       </c>
+      <c r="BB10">
+        <v>-0.2513629445286991</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1794,8 +1821,11 @@
       <c r="BA11">
         <v>0.2729872858366011</v>
       </c>
+      <c r="BB11">
+        <v>0.2729872858366011</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1904,8 +1934,11 @@
       <c r="BA12">
         <v>0.1243096661369014</v>
       </c>
+      <c r="BB12">
+        <v>0.1243096661369014</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -2008,8 +2041,11 @@
       <c r="BA13">
         <v>-0.4025146932836732</v>
       </c>
+      <c r="BB13">
+        <v>-0.4025146932836732</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2103,8 +2139,11 @@
       <c r="BA14">
         <v>-0.9275935716973494</v>
       </c>
+      <c r="BB14">
+        <v>-0.9275935716973494</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2186,8 +2225,11 @@
       <c r="BA15">
         <v>0.2398177392026746</v>
       </c>
+      <c r="BB15">
+        <v>0.2398177392026746</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2257,8 +2299,11 @@
       <c r="BA16">
         <v>0.539177729005802</v>
       </c>
+      <c r="BB16">
+        <v>0.539177729005802</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2316,8 +2361,11 @@
       <c r="BA17">
         <v>0.6992203852886458</v>
       </c>
+      <c r="BB17">
+        <v>0.6992203852886458</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2363,8 +2411,11 @@
       <c r="BA18">
         <v>-0.850803046382087</v>
       </c>
+      <c r="BB18">
+        <v>-0.850803046382087</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2398,8 +2449,11 @@
       <c r="BA19">
         <v>1.251846894998732</v>
       </c>
+      <c r="BB19">
+        <v>1.049317648994741</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2421,8 +2475,11 @@
       <c r="BA20">
         <v>1.786827323774465</v>
       </c>
+      <c r="BB20">
+        <v>0.72625340902297</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2432,8 +2489,11 @@
       <c r="BA21">
         <v>2.015050062499957</v>
       </c>
+      <c r="BB21">
+        <v>0.8024032016000104</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
